--- a/RailwayReservationTest/src/sourceanddest.xlsx
+++ b/RailwayReservationTest/src/sourceanddest.xlsx
@@ -1,62 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I529007/Desktop/SQAT Project/RailwayReservationTest/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I529006/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88858A-ADF8-7549-A6E0-D241469F8362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908E2E0-AD13-1741-8EBC-7DD92A226048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Desc</t>
+  </si>
+  <si>
+    <t>Pre-conditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Post-conditions</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>Valid different stations (ECP)</t>
+  </si>
+  <si>
+    <t>NDLS</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>Stations accepted, trains listed</t>
+  </si>
+  <si>
+    <t>Booking ready</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>TS_03</t>
+  </si>
+  <si>
+    <t>HWH</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>TS_05</t>
+  </si>
+  <si>
+    <t>TS_06</t>
+  </si>
   <si>
     <t>ABCD</t>
   </si>
   <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>DELHI123</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>TS_14</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>User is on booking page</t>
+  </si>
+  <si>
+    <t>Enter valid "From" and "To"</t>
+  </si>
+  <si>
+    <t>CSTM</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>LKO</t>
+  </si>
+  <si>
+    <t>CNB</t>
+  </si>
+  <si>
+    <t>Same source and destination (ECP)</t>
+  </si>
+  <si>
+    <t>Enter same "From" and "To"</t>
+  </si>
+  <si>
+    <t>Error shown</t>
+  </si>
+  <si>
+    <t>No booking</t>
+  </si>
+  <si>
+    <t>Blank destination (ECP)</t>
+  </si>
+  <si>
+    <t>Leave "To" blank</t>
+  </si>
+  <si>
+    <t>Blank source (ECP)</t>
+  </si>
+  <si>
+    <t>Leave "From" blank</t>
+  </si>
+  <si>
+    <t>Source with numbers (ECP)</t>
+  </si>
+  <si>
+    <t>Enter invalid "From"</t>
+  </si>
+  <si>
+    <t>Destination with special char (ECP)</t>
+  </si>
+  <si>
+    <t>Enter invalid "To"</t>
+  </si>
+  <si>
+    <t>M@S</t>
+  </si>
+  <si>
+    <t>Non-existent stations (ECP)</t>
+  </si>
+  <si>
+    <t>Enter invalid "From" and "To"</t>
+  </si>
+  <si>
     <t>XYZ1</t>
   </si>
   <si>
-    <t>DELHI123</t>
-  </si>
-  <si>
-    <t>M@S</t>
-  </si>
-  <si>
-    <t>NDLS</t>
-  </si>
-  <si>
-    <t>BCT</t>
-  </si>
-  <si>
-    <t>MAS</t>
+    <t>Source too short (BVA)</t>
+  </si>
+  <si>
+    <t>Enter short "From"</t>
   </si>
   <si>
     <t>ND</t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
+    <t>Destination too short (BVA)</t>
+  </si>
+  <si>
+    <t>Enter short "To"</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Source too long (BVA)</t>
+  </si>
+  <si>
+    <t>Enter long "From"</t>
+  </si>
+  <si>
+    <t>NDLSSSSSSSSSSSSSSSSS</t>
+  </si>
+  <si>
+    <t>Destination too long (BVA)</t>
+  </si>
+  <si>
+    <t>Enter long "To"</t>
+  </si>
+  <si>
+    <t>BCTTTTTTTTTTTTTTTTTT</t>
+  </si>
+  <si>
+    <t>Source at min length (BVA)</t>
+  </si>
+  <si>
+    <t>Enter min length "From"</t>
+  </si>
+  <si>
+    <t>Destination at min length (BVA)</t>
+  </si>
+  <si>
+    <t>Enter min length "To"</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
+    <t>Both at max allowed length (BVA)</t>
+  </si>
+  <si>
+    <t>Enter max length "From" and "To"</t>
+  </si>
+  <si>
+    <t>TS_19</t>
+  </si>
+  <si>
+    <t>Both blank (BVA)</t>
+  </si>
+  <si>
+    <t>Leave both blank</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>Destination with only spaces (ECP)</t>
+  </si>
+  <si>
+    <t>Enter spaces in "To"</t>
+  </si>
+  <si>
+    <t>(spaces)</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +321,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFA9B1D6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFA9B1D6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,8 +394,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,9 +445,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +485,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +519,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +554,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,85 +730,899 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.83203125"/>
+    <col min="2" max="2" customWidth="true" width="46.0"/>
+    <col min="3" max="3" customWidth="true" width="39.5"/>
+    <col min="4" max="4" customWidth="true" width="43.6640625"/>
+    <col min="5" max="5" customWidth="true" width="23.0"/>
+    <col min="6" max="6" customWidth="true" width="16.5"/>
+    <col min="7" max="7" customWidth="true" width="38.83203125"/>
+    <col min="8" max="8" customWidth="true" width="24.0"/>
+    <col min="9" max="9" customWidth="true" width="18.83203125"/>
+    <col min="10" max="10" customWidth="true" width="23.1640625"/>
+    <col min="11" max="11" customWidth="true" width="25.1640625"/>
+    <col min="12" max="12" customWidth="true" width="19.5"/>
+    <col min="13" max="13" customWidth="true" width="20.6640625"/>
+    <col min="17" max="17" customWidth="true" width="19.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="13">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s" s="16">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s" s="17">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s" s="18">
+        <v>88</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s" s="22">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="23">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="25">
+        <v>89</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s" s="26">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s" s="27">
+        <v>88</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>